--- a/ESPN sports website/IPL/Delhi Capitals/.xlsx
+++ b/ESPN sports website/IPL/Delhi Capitals/.xlsx
@@ -460,16 +460,16 @@
         <v/>
       </c>
       <c r="H2" t="str">
-        <v>Punjab Kings</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I2" t="str">
-        <v>DY Patil</v>
+        <v>Pune</v>
       </c>
       <c r="J2" t="str">
-        <v>May 16, 2022</v>
+        <v>April 02, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Capitals won by 17 runs</v>
+        <v>Titans won by 14 runs</v>
       </c>
     </row>
   </sheetData>
